--- a/artfynd/A 46727-2019.xlsx
+++ b/artfynd/A 46727-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111782491</v>
+        <v>111782493</v>
       </c>
       <c r="B2" t="n">
-        <v>108022</v>
+        <v>98535</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,26 +696,26 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219677</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hedera helix</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575008.5077558539</v>
+        <v>574992.2136175551</v>
       </c>
       <c r="R2" t="n">
-        <v>6299345.555217382</v>
+        <v>6299306.412035576</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111782493</v>
+        <v>111782491</v>
       </c>
       <c r="B3" t="n">
-        <v>98535</v>
+        <v>108022</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,26 +817,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>219677</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hedera helix</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>574992.2136175551</v>
+        <v>575008.5077558539</v>
       </c>
       <c r="R3" t="n">
-        <v>6299306.412035576</v>
+        <v>6299345.555217382</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 46727-2019.xlsx
+++ b/artfynd/A 46727-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111782493</v>
+        <v>111782491</v>
       </c>
       <c r="B2" t="n">
-        <v>98535</v>
+        <v>108022</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,26 +696,26 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>219677</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hedera helix</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>574992.2136175551</v>
+        <v>575008.5077558539</v>
       </c>
       <c r="R2" t="n">
-        <v>6299306.412035576</v>
+        <v>6299345.555217382</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111782491</v>
+        <v>111782493</v>
       </c>
       <c r="B3" t="n">
-        <v>108022</v>
+        <v>98535</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,26 +817,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219677</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hedera helix</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575008.5077558539</v>
+        <v>574992.2136175551</v>
       </c>
       <c r="R3" t="n">
-        <v>6299345.555217382</v>
+        <v>6299306.412035576</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 46727-2019.xlsx
+++ b/artfynd/A 46727-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111782491</v>
+        <v>111782493</v>
       </c>
       <c r="B2" t="n">
-        <v>108022</v>
+        <v>98535</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,26 +696,26 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219677</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hedera helix</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575008.5077558539</v>
+        <v>574992</v>
       </c>
       <c r="R2" t="n">
-        <v>6299345.555217382</v>
+        <v>6299306</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -762,19 +762,9 @@
           <t>2022-11-02</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2022-11-02</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111782493</v>
+        <v>111782491</v>
       </c>
       <c r="B3" t="n">
-        <v>98535</v>
+        <v>108022</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,26 +807,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>219677</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hedera helix</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -850,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>574992.2136175551</v>
+        <v>575009</v>
       </c>
       <c r="R3" t="n">
-        <v>6299306.412035576</v>
+        <v>6299346</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -883,19 +873,9 @@
           <t>2022-11-02</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2022-11-02</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
